--- a/temporary_files/explored_highu.xlsx
+++ b/temporary_files/explored_highu.xlsx
@@ -428,16 +428,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="C2" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="D2" t="n">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -445,16 +445,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.486</v>
+        <v>-0.49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.627</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -462,16 +462,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.198</v>
+        <v>-0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.967</v>
+        <v>-0.97</v>
       </c>
       <c r="E4" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -479,16 +479,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.455</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -496,13 +496,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.063</v>
+        <v>-0.06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.386</v>
+        <v>-0.39</v>
       </c>
       <c r="E6" t="n">
         <v>0.7</v>
@@ -513,16 +513,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.083</v>
+        <v>-0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.934</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="8">
@@ -530,16 +530,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="C8" t="n">
         <v>0.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>0.639</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9">
@@ -547,16 +547,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.463</v>
+        <v>1.46</v>
       </c>
       <c r="E9" t="n">
-        <v>0.144</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -564,16 +564,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.455</v>
+        <v>-0.46</v>
       </c>
       <c r="C10" t="n">
-        <v>0.203</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.244</v>
+        <v>-2.24</v>
       </c>
       <c r="E10" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -581,16 +581,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.027</v>
+        <v>-0.03</v>
       </c>
       <c r="C11" t="n">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="D11" t="n">
         <v>-0.12</v>
       </c>
       <c r="E11" t="n">
-        <v>0.904</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -598,16 +598,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="D12" t="n">
-        <v>1.099</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
@@ -615,16 +615,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="E13" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +632,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="C14" t="n">
-        <v>0.285</v>
+        <v>0.29</v>
       </c>
       <c r="D14" t="n">
         <v>1.34</v>
@@ -649,16 +649,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="C15" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="E15" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="16">
@@ -666,16 +666,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.124</v>
+        <v>-0.12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="D16" t="n">
         <v>-0.45</v>
       </c>
       <c r="E16" t="n">
-        <v>0.652</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17">
@@ -683,10 +683,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.223</v>
+        <v>0.22</v>
       </c>
       <c r="C17" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="D17" t="n">
         <v>0.74</v>
